--- a/knn - summary of results.xlsx
+++ b/knn - summary of results.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicomartin/Documents/Master Data Science/Statistical Machine Learning/Mini-project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicomartin/Documents/GitHub/sml-group-10-mini-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7667F4F3-CFEB-4E4B-AF3C-92F983689189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA0CBD72-C575-D44D-B064-AAF332A41455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{C6B579EF-A524-C04F-A5C2-F69552C8A8E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Accuracy</t>
   </si>
@@ -127,16 +127,20 @@
   </si>
   <si>
     <t>Std Dev</t>
+  </si>
+  <si>
+    <t>Many false negatives</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="170" formatCode="0.000000"/>
-    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="0.000000"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="0.0%"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -197,12 +201,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -234,13 +244,13 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -278,10 +288,12 @@
     <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -601,7 +613,7 @@
   <dimension ref="B2:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="135" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -816,7 +828,10 @@
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
+      <c r="E12" s="27">
+        <f>C4-C3</f>
+        <v>4.2257814016695927E-2</v>
+      </c>
       <c r="F12" s="7"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
@@ -827,7 +842,10 @@
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
+      <c r="E13" s="27">
+        <f>C8-C4</f>
+        <v>7.2828576975344061E-2</v>
+      </c>
       <c r="F13" s="7"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
@@ -836,7 +854,10 @@
       <c r="B14" s="4"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
+      <c r="E14" s="27">
+        <f>C9-C8</f>
+        <v>1.344590155649894E-2</v>
+      </c>
       <c r="F14" s="7"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
@@ -886,7 +907,7 @@
       <c r="B18" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="28">
         <v>0.73648100000000005</v>
       </c>
       <c r="D18" s="12">
@@ -931,7 +952,7 @@
       <c r="B21" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21" s="28">
         <v>0.63268400000000002</v>
       </c>
       <c r="D21" s="12">
@@ -939,7 +960,9 @@
       </c>
       <c r="E21" s="20"/>
       <c r="F21" s="20"/>
-      <c r="G21" s="4"/>
+      <c r="G21" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="H21" s="4"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.2">
